--- a/коортдинаты на окружности.xlsx
+++ b/коортдинаты на окружности.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсы\Homework5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Курсы\Homework5\homework_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -202,43 +202,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.362966948437268</c:v>
+                  <c:v>41.362966948437268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.358983848622451</c:v>
+                  <c:v>45.358983848622451</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.715728752538098</c:v>
+                  <c:v>51.715728752538098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.64723819589917</c:v>
+                  <c:v>69.647238195899178</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.352761804100837</c:v>
+                  <c:v>90.352761804100837</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>88.284271247461902</c:v>
+                  <c:v>108.2842712474619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94.641016151377556</c:v>
+                  <c:v>114.64101615137756</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98.637033051562724</c:v>
+                  <c:v>118.63703305156272</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -250,43 +250,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.35276180410082</c:v>
+                  <c:v>240.35276180410082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>248.2842712474619</c:v>
+                  <c:v>258.2842712474619</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254.64101615137753</c:v>
+                  <c:v>264.64101615137753</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>258.63703305156275</c:v>
+                  <c:v>268.63703305156275</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>260</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>258.63703305156275</c:v>
+                  <c:v>268.63703305156275</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>254.64101615137756</c:v>
+                  <c:v>264.64101615137753</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>248.2842712474619</c:v>
+                  <c:v>258.2842712474619</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>240</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>230.35276180410085</c:v>
+                  <c:v>240.35276180410085</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>220</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -301,11 +301,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="496125600"/>
-        <c:axId val="496122464"/>
+        <c:axId val="226138208"/>
+        <c:axId val="226139616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="496125600"/>
+        <c:axId val="226138208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -362,12 +362,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496122464"/>
+        <c:crossAx val="226139616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="496122464"/>
+        <c:axId val="226139616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +424,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="496125600"/>
+        <c:crossAx val="226138208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1034,13 +1034,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1360,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E2">
         <v>64</v>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="C3" s="3">
         <f>C2+B3-B3*COS(RADIANS(A3))</f>
-        <v>21.362966948437268</v>
+        <v>41.362966948437268</v>
       </c>
       <c r="D3" s="5">
         <f>D2+B2*SIN(RADIANS(A3))</f>
-        <v>230.35276180410082</v>
+        <v>240.35276180410082</v>
       </c>
       <c r="E3">
         <v>67</v>
@@ -1397,11 +1397,11 @@
       </c>
       <c r="C4" s="3">
         <f>C2+B4-B4*COS(RADIANS(A4))</f>
-        <v>25.358983848622451</v>
+        <v>45.358983848622451</v>
       </c>
       <c r="D4" s="5">
         <f>D2+B3*SIN(RADIANS(A4))</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -1416,11 +1416,11 @@
       </c>
       <c r="C5" s="3">
         <f>C2+B5-B5*COS(RADIANS(A5))</f>
-        <v>31.715728752538098</v>
+        <v>51.715728752538098</v>
       </c>
       <c r="D5" s="5">
         <f>D2+B4*SIN(RADIANS(A5))</f>
-        <v>248.2842712474619</v>
+        <v>258.2842712474619</v>
       </c>
       <c r="E5">
         <v>73</v>
@@ -1435,11 +1435,11 @@
       </c>
       <c r="C6" s="3">
         <f>C2+B6-B6*COS(RADIANS(A6))</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5">
         <f>D2+B5*SIN(RADIANS(A6))</f>
-        <v>254.64101615137753</v>
+        <v>264.64101615137753</v>
       </c>
       <c r="E6">
         <v>76</v>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="C7" s="3">
         <f>C2+B7-B7*COS(RADIANS(A7))</f>
-        <v>49.64723819589917</v>
+        <v>69.647238195899178</v>
       </c>
       <c r="D7" s="5">
         <f>D2+B6*SIN(RADIANS(A7))</f>
-        <v>258.63703305156275</v>
+        <v>268.63703305156275</v>
       </c>
       <c r="E7">
         <v>79</v>
@@ -1473,11 +1473,11 @@
       </c>
       <c r="C8" s="3">
         <f>C2+B8-B8*COS(RADIANS(A8))</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5">
         <f>D2+B7*SIN(RADIANS(A8))</f>
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E8">
         <v>82</v>
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C9" s="3">
         <f>C2+B9-B9*COS(RADIANS(A9))</f>
-        <v>70.352761804100837</v>
+        <v>90.352761804100837</v>
       </c>
       <c r="D9" s="5">
         <f>D2+B8*SIN(RADIANS(A9))</f>
-        <v>258.63703305156275</v>
+        <v>268.63703305156275</v>
       </c>
       <c r="E9">
         <v>85</v>
@@ -1511,11 +1511,11 @@
       </c>
       <c r="C10" s="3">
         <f>C2+B10-B10*COS(RADIANS(A10))</f>
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5">
         <f>D2+B9*SIN(RADIANS(A10))</f>
-        <v>254.64101615137756</v>
+        <v>264.64101615137753</v>
       </c>
       <c r="E10">
         <v>88</v>
@@ -1530,11 +1530,11 @@
       </c>
       <c r="C11" s="3">
         <f>C2+B11-B11*COS(RADIANS(A11))</f>
-        <v>88.284271247461902</v>
+        <v>108.2842712474619</v>
       </c>
       <c r="D11" s="5">
         <f>D2+B10*SIN(RADIANS(A11))</f>
-        <v>248.2842712474619</v>
+        <v>258.2842712474619</v>
       </c>
       <c r="E11">
         <v>91</v>
@@ -1549,11 +1549,11 @@
       </c>
       <c r="C12" s="3">
         <f>C2+B12-B12*COS(RADIANS(A12))</f>
-        <v>94.641016151377556</v>
+        <v>114.64101615137756</v>
       </c>
       <c r="D12" s="5">
         <f>D2+B11*SIN(RADIANS(A12))</f>
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E12">
         <v>94</v>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C13" s="3">
         <f>C2+B13-B13*COS(RADIANS(A13))</f>
-        <v>98.637033051562724</v>
+        <v>118.63703305156272</v>
       </c>
       <c r="D13" s="5">
         <f>D2+B12*SIN(RADIANS(A13))</f>
-        <v>230.35276180410085</v>
+        <v>240.35276180410085</v>
       </c>
       <c r="E13">
         <v>97</v>
@@ -1587,11 +1587,11 @@
       </c>
       <c r="C14" s="3">
         <f>C2+B14-B14*COS(RADIANS(A14))</f>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D14" s="5">
         <f>D2+B13*SIN(RADIANS(A14))</f>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E14">
         <v>100</v>
